--- a/DuoNetwork - IP címek.xlsx
+++ b/DuoNetwork - IP címek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcolorblade\Desktop\DuoNetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DuoNetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9110E5F-33A2-44EF-A165-F7BC22690C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112B398-84F6-4C00-8043-B185C1979870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baja" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
   <si>
     <t>Baja - Iroda</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Se0/0/0</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>R_Iroda_Backup</t>
   </si>
   <si>
@@ -363,6 +360,30 @@
   </si>
   <si>
     <t>Kecskemét - Kis iroda</t>
+  </si>
+  <si>
+    <t>85.50.50.2 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.5 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.6 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.1 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.10 /30</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>85.50.50.13 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.14 /30</t>
   </si>
 </sst>
 </file>
@@ -410,7 +431,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -587,11 +608,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,15 +659,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -645,15 +675,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -936,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,17 +998,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -971,7 +1018,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>1</v>
@@ -980,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -997,15 +1044,17 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1018,10 +1067,10 @@
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,16 +1091,16 @@
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1061,16 +1110,16 @@
         <v>9</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1079,56 +1128,62 @@
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="26"/>
       <c r="G8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1144,8 +1199,12 @@
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1154,74 +1213,74 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,46 +1290,46 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1280,29 +1339,31 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E320C00-A8F4-4C91-AD77-EA20AB5ACF4F}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,21 +1374,22 @@
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="G1" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="G1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1335,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>1</v>
@@ -1344,140 +1406,143 @@
         <v>2</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1511,292 +1576,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>111</v>
+      <c r="A1" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="C1" s="23"/>
-      <c r="G1" s="25" t="s">
-        <v>110</v>
+      <c r="C1" s="25"/>
+      <c r="G1" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="H1" s="24"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="22"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>108</v>
       </c>
+      <c r="J2" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="B3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="G3" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="G7" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="C17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>84</v>
+      <c r="C18" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15" t="s">
-        <v>43</v>
+      <c r="A19" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
-        <v>43</v>
+      <c r="A20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15" t="s">
-        <v>43</v>
+      <c r="A21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15" t="s">
-        <v>43</v>
+      <c r="A22" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DuoNetwork - IP címek.xlsx
+++ b/DuoNetwork - IP címek.xlsx
@@ -1,43 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DuoNetwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcolorblade\Desktop\DuoNetwork\Dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112B398-84F6-4C00-8043-B185C1979870}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E82EE3-8E31-4999-9B52-3904C541FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baja" sheetId="1" r:id="rId1"/>
     <sheet name="Szeged" sheetId="3" r:id="rId2"/>
     <sheet name="Kecskemét" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
   <si>
     <t>Baja - Iroda</t>
   </si>
   <si>
+    <t>Baja - Bolt</t>
+  </si>
+  <si>
     <t>Eszköz</t>
   </si>
   <si>
     <t>Port</t>
   </si>
   <si>
+    <t>IPv4 cím (/24)</t>
+  </si>
+  <si>
+    <t>IPv6 (/64)</t>
+  </si>
+  <si>
     <t>R_Iroda</t>
   </si>
   <si>
@@ -47,19 +67,82 @@
     <t>Vlan 10: 192.168.10.2</t>
   </si>
   <si>
+    <t>R_Bolt</t>
+  </si>
+  <si>
+    <t>Se0/0/0</t>
+  </si>
+  <si>
+    <t>85.50.50.10 /30</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>85.50.50.9 /30</t>
+  </si>
+  <si>
     <t>Vlan 20: 192.168.20.2</t>
   </si>
   <si>
+    <t>192.168.50.1</t>
+  </si>
+  <si>
+    <t>2001:db8:50::1</t>
+  </si>
+  <si>
     <t>Vlan 30: 192.168.30.2</t>
   </si>
   <si>
     <t>Vlan 199: 192.168.199.2</t>
   </si>
   <si>
+    <t>PC_Bolt</t>
+  </si>
+  <si>
+    <t>Fa0/1</t>
+  </si>
+  <si>
+    <t>192.168.50.100</t>
+  </si>
+  <si>
+    <t>fe80::1 link-local</t>
+  </si>
+  <si>
     <t>Virtuális cím: .1</t>
   </si>
   <si>
-    <t>Se0/0/0</t>
+    <t>PC_Bolt_2</t>
+  </si>
+  <si>
+    <t>Fa0/2</t>
+  </si>
+  <si>
+    <t>192.168.50.101</t>
+  </si>
+  <si>
+    <t>85.50.50.2 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.1 /30</t>
+  </si>
+  <si>
+    <t>Printer_Bolt</t>
+  </si>
+  <si>
+    <t>Fa0/3</t>
+  </si>
+  <si>
+    <t>192.168.50.102</t>
+  </si>
+  <si>
+    <t>SW_Bolt</t>
+  </si>
+  <si>
+    <t>Vlan1</t>
+  </si>
+  <si>
+    <t>192.168.50.2</t>
   </si>
   <si>
     <t>R_Iroda_Backup</t>
@@ -77,6 +160,12 @@
     <t>Vlan 199: 192.168.199.3</t>
   </si>
   <si>
+    <t>85.50.50.6 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.5 /30</t>
+  </si>
+  <si>
     <t>Linux szerver</t>
   </si>
   <si>
@@ -131,12 +220,12 @@
     <t>vlan1</t>
   </si>
   <si>
+    <t>192.168.199.10</t>
+  </si>
+  <si>
     <t>SW_Iroda_2</t>
   </si>
   <si>
-    <t>192.168.199.10</t>
-  </si>
-  <si>
     <t>192.168.199.11</t>
   </si>
   <si>
@@ -158,58 +247,13 @@
     <t>DHCP</t>
   </si>
   <si>
-    <t>Baja - Bolt</t>
-  </si>
-  <si>
-    <t>R_Bolt</t>
-  </si>
-  <si>
-    <t>192.168.50.1</t>
-  </si>
-  <si>
-    <t>2001:db8:50::1</t>
-  </si>
-  <si>
-    <t>IPv6 (/64)</t>
-  </si>
-  <si>
-    <t>IPv4 cím (/24)</t>
-  </si>
-  <si>
-    <t>PC_Bolt</t>
-  </si>
-  <si>
-    <t>PC_Bolt_2</t>
-  </si>
-  <si>
-    <t>Printer_Bolt</t>
-  </si>
-  <si>
-    <t>Fa0/1</t>
-  </si>
-  <si>
-    <t>Fa0/2</t>
-  </si>
-  <si>
-    <t>Fa0/3</t>
-  </si>
-  <si>
-    <t>192.168.50.100</t>
-  </si>
-  <si>
-    <t>192.168.50.101</t>
-  </si>
-  <si>
-    <t>192.168.50.102</t>
-  </si>
-  <si>
-    <t>fe80::1 link-local</t>
-  </si>
-  <si>
     <t>Szeged - Bolt</t>
   </si>
   <si>
-    <t>AP Bolt</t>
+    <t>Szeged - Raktár</t>
+  </si>
+  <si>
+    <t>AP_Bolt</t>
   </si>
   <si>
     <t>172.16.1.4</t>
@@ -224,173 +268,218 @@
     <t>172.16.1.1</t>
   </si>
   <si>
+    <t>172.16.1.15</t>
+  </si>
+  <si>
+    <t>85.50.50.13 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.14 /30</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Gig1</t>
+  </si>
+  <si>
+    <t>172.16.1.2</t>
+  </si>
+  <si>
+    <t>Laptop_2</t>
+  </si>
+  <si>
+    <t>AP Raktár</t>
+  </si>
+  <si>
+    <t>172.16.1.3</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Nyomtató</t>
+  </si>
+  <si>
+    <t>172.16.1.5</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>172.16.1.10</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>172.16.1.50</t>
+  </si>
+  <si>
+    <t>Laptop 2</t>
+  </si>
+  <si>
+    <t>Kecskemét - Kis iroda</t>
+  </si>
+  <si>
+    <t>Kecskemét - Bolt</t>
+  </si>
+  <si>
+    <t>IPv4 cím (/25)</t>
+  </si>
+  <si>
+    <t>IPv6 cím (/64)</t>
+  </si>
+  <si>
+    <t>Iroda_R</t>
+  </si>
+  <si>
+    <t>172.16.10.1</t>
+  </si>
+  <si>
+    <t>Bolt_R</t>
+  </si>
+  <si>
+    <t>10.10.10.2/30</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>Gig1</t>
-  </si>
-  <si>
-    <t>172.16.1.2</t>
-  </si>
-  <si>
-    <t>AP Raktár</t>
-  </si>
-  <si>
-    <t>172.16.1.3</t>
-  </si>
-  <si>
-    <t>Nyomtató</t>
-  </si>
-  <si>
-    <t>172.16.1.5</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>172.16.1.10</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>172.16.1.60</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Laptop 2</t>
+    <t>Gig0/2</t>
+  </si>
+  <si>
+    <t>172.16.10.129</t>
+  </si>
+  <si>
+    <t>172.16.20.1</t>
+  </si>
+  <si>
+    <t>2001:ACAD:20::1</t>
+  </si>
+  <si>
+    <t>FE80::1 link-local</t>
+  </si>
+  <si>
+    <t>10.10.10.1 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.17 /30</t>
+  </si>
+  <si>
+    <t>85.50.50.18</t>
+  </si>
+  <si>
+    <t>Bolt_PC</t>
+  </si>
+  <si>
+    <t>172.16.20.10</t>
+  </si>
+  <si>
+    <t>link-local</t>
+  </si>
+  <si>
+    <t>Iroda_PC</t>
+  </si>
+  <si>
+    <t>Bolt_Switch</t>
+  </si>
+  <si>
+    <t>172.16.20.50</t>
+  </si>
+  <si>
+    <t>Iroda_PC2</t>
+  </si>
+  <si>
+    <t>Bolt_Nyomtató</t>
+  </si>
+  <si>
+    <t>172.16.20.20</t>
+  </si>
+  <si>
+    <t>Iroda_PC3</t>
+  </si>
+  <si>
+    <t>Bolt_PC_2</t>
+  </si>
+  <si>
+    <t>172.16.20.11</t>
+  </si>
+  <si>
+    <t>Iroda_PC4</t>
+  </si>
+  <si>
+    <t>Windows Szerver</t>
+  </si>
+  <si>
+    <t>172.16.10.10</t>
+  </si>
+  <si>
+    <t>Iroda_Printer</t>
+  </si>
+  <si>
+    <t>172.16.10.20</t>
+  </si>
+  <si>
+    <t>Iroda_Printer2</t>
+  </si>
+  <si>
+    <t>172.16.10.21</t>
+  </si>
+  <si>
+    <t>Iroda_Tuzfal</t>
+  </si>
+  <si>
+    <t>Gig1/1</t>
+  </si>
+  <si>
+    <t>Gig1/0</t>
+  </si>
+  <si>
+    <t>172.16.10.140</t>
+  </si>
+  <si>
+    <t>Iroda_AP</t>
+  </si>
+  <si>
+    <t>172.16.10.141</t>
+  </si>
+  <si>
+    <t>Iroda_Laptop</t>
+  </si>
+  <si>
+    <t>WIFI</t>
+  </si>
+  <si>
+    <t>Iroda_Laptop2</t>
+  </si>
+  <si>
+    <t>Iroda_Laptop3</t>
   </si>
   <si>
     <t>Iroda_Laptop4</t>
   </si>
   <si>
-    <t>Iroda_Laptop3</t>
-  </si>
-  <si>
-    <t>Iroda_Laptop2</t>
-  </si>
-  <si>
-    <t>Iroda_Laptop</t>
-  </si>
-  <si>
-    <t>172.16.10.141</t>
-  </si>
-  <si>
-    <t>Iroda_AP</t>
-  </si>
-  <si>
-    <t>172.16.10.140</t>
-  </si>
-  <si>
-    <t>Gig1/2</t>
-  </si>
-  <si>
-    <t>Gig1/1</t>
-  </si>
-  <si>
-    <t>Iroda_Fw</t>
-  </si>
-  <si>
-    <t>172.16.10.21</t>
-  </si>
-  <si>
-    <t>Iroda_Printer2</t>
-  </si>
-  <si>
-    <t>172.16.10.20</t>
-  </si>
-  <si>
-    <t>Iroda_Printer</t>
-  </si>
-  <si>
-    <t>172.16.10.10</t>
-  </si>
-  <si>
-    <t>Windows Szerver</t>
-  </si>
-  <si>
-    <t>Iroda_PC4</t>
-  </si>
-  <si>
-    <t>Iroda_PC3</t>
-  </si>
-  <si>
-    <t>Iroda_PC2</t>
-  </si>
-  <si>
-    <t>Bolt_Laptop</t>
-  </si>
-  <si>
-    <t>Iroda_PC</t>
-  </si>
-  <si>
-    <t>172.16.20.10</t>
-  </si>
-  <si>
-    <t>Bolt_PC</t>
-  </si>
-  <si>
-    <t>Gig0/2</t>
-  </si>
-  <si>
-    <t>172.16.10.129</t>
-  </si>
-  <si>
-    <t>Bolt_R</t>
-  </si>
-  <si>
-    <t>172.16.10.1</t>
-  </si>
-  <si>
-    <t>Iroda_R</t>
-  </si>
-  <si>
-    <t>IPv6 cím (/64)</t>
-  </si>
-  <si>
-    <t>IPv4 cím (/24</t>
-  </si>
-  <si>
-    <t>Kecskemét - Bolt</t>
-  </si>
-  <si>
-    <t>Kecskemét - Kis iroda</t>
-  </si>
-  <si>
-    <t>85.50.50.2 /30</t>
-  </si>
-  <si>
-    <t>85.50.50.5 /30</t>
-  </si>
-  <si>
-    <t>85.50.50.6 /30</t>
-  </si>
-  <si>
-    <t>85.50.50.1 /30</t>
-  </si>
-  <si>
-    <t>85.50.50.10 /30</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>85.50.50.13 /30</t>
-  </si>
-  <si>
-    <t>85.50.50.14 /30</t>
+    <t>Iroda_Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vlan1 </t>
+  </si>
+  <si>
+    <t>172.16.10.50</t>
+  </si>
+  <si>
+    <t>Iroda_Switch2</t>
+  </si>
+  <si>
+    <t>172.16.10.150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,10 +708,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -669,12 +758,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -684,6 +785,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,14 +800,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -981,13 +1080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -995,355 +1094,367 @@
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="G1" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>114</v>
+        <v>27</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="E8" s="26"/>
       <c r="G8" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>112</v>
+        <v>40</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="26"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="6" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="6" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="6" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1362,11 +1473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E320C00-A8F4-4C91-AD77-EA20AB5ACF4F}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -1377,172 +1488,178 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="G1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
+      <c r="A1" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="G1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="6" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="G8" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="G9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="G10" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="G11" s="6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="G12" s="6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1557,13 +1674,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A870D6-D7F1-4578-85E9-011C627AB5FF}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -1572,70 +1689,71 @@
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="11" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="G1" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="G1" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1">
       <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>48</v>
+      <c r="B2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1">
       <c r="A3" s="15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="13"/>
       <c r="B4" s="12" t="s">
         <v>102</v>
@@ -1645,223 +1763,289 @@
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="13"/>
       <c r="B5" s="12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="12" t="s">
         <v>102</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="13"/>
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>65</v>
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="13"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="G7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="13"/>
       <c r="B16" s="12" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="C20" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="12"/>
+        <v>138</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="12"/>
+        <v>139</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="C22" s="12" t="s">
-        <v>42</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/DuoNetwork - IP címek.xlsx
+++ b/DuoNetwork - IP címek.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcolorblade\Desktop\DuoNetwork\Dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E82EE3-8E31-4999-9B52-3904C541FFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9854D0-91B6-4480-9F3E-E184BEDCE1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baja" sheetId="1" r:id="rId1"/>
-    <sheet name="Szeged" sheetId="3" r:id="rId2"/>
-    <sheet name="Kecskemét" sheetId="4" r:id="rId3"/>
+    <sheet name="Kecskemét" sheetId="4" r:id="rId2"/>
+    <sheet name="Szeged" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
   <si>
     <t>Baja - Iroda</t>
   </si>
@@ -166,9 +166,6 @@
     <t>85.50.50.5 /30</t>
   </si>
   <si>
-    <t>Linux szerver</t>
-  </si>
-  <si>
     <t>Fa0</t>
   </si>
   <si>
@@ -199,21 +196,12 @@
     <t>Printer_Marketing</t>
   </si>
   <si>
-    <t>192.168.20.50</t>
-  </si>
-  <si>
     <t>Printer_Fejlesztok</t>
   </si>
   <si>
-    <t>192.168.30.50</t>
-  </si>
-  <si>
     <t>Printer_Iroda</t>
   </si>
   <si>
-    <t>192.168.10.50</t>
-  </si>
-  <si>
     <t>SW_Iroda</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>172.16.1.1</t>
   </si>
   <si>
-    <t>172.16.1.15</t>
-  </si>
-  <si>
     <t>85.50.50.13 /30</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>Switch</t>
   </si>
   <si>
-    <t>172.16.1.50</t>
-  </si>
-  <si>
     <t>Laptop 2</t>
   </si>
   <si>
@@ -409,24 +391,15 @@
     <t>Iroda_PC4</t>
   </si>
   <si>
-    <t>Windows Szerver</t>
-  </si>
-  <si>
     <t>172.16.10.10</t>
   </si>
   <si>
     <t>Iroda_Printer</t>
   </si>
   <si>
-    <t>172.16.10.20</t>
-  </si>
-  <si>
     <t>Iroda_Printer2</t>
   </si>
   <si>
-    <t>172.16.10.21</t>
-  </si>
-  <si>
     <t>Iroda_Tuzfal</t>
   </si>
   <si>
@@ -466,20 +439,53 @@
     <t xml:space="preserve">Vlan1 </t>
   </si>
   <si>
-    <t>172.16.10.50</t>
-  </si>
-  <si>
     <t>Iroda_Switch2</t>
   </si>
   <si>
     <t>172.16.10.150</t>
+  </si>
+  <si>
+    <t>172.16.10.3</t>
+  </si>
+  <si>
+    <t>172.16.10.4</t>
+  </si>
+  <si>
+    <t>172.16.10.5</t>
+  </si>
+  <si>
+    <t>172.16.1.6</t>
+  </si>
+  <si>
+    <t>172.16.1.7</t>
+  </si>
+  <si>
+    <t>192.168.10.10</t>
+  </si>
+  <si>
+    <t>192.168.30.10</t>
+  </si>
+  <si>
+    <t>192.168.20.10</t>
+  </si>
+  <si>
+    <t>Linux Szerver</t>
+  </si>
+  <si>
+    <t>Windows szerver</t>
+  </si>
+  <si>
+    <t>Iroda_PC5</t>
+  </si>
+  <si>
+    <t>172.16.10.142</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +515,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1083,10 +1095,10 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -1097,7 +1109,7 @@
     <col min="11" max="11" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1122,7 @@
       <c r="I1" s="22"/>
       <c r="J1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
@@ -1176,7 +1188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
@@ -1187,7 +1199,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -1206,7 +1218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1225,7 +1237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>10</v>
@@ -1250,7 +1262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1265,7 +1277,7 @@
       </c>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
@@ -1276,35 +1288,35 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7" t="s">
         <v>10</v>
@@ -1317,144 +1329,144 @@
       </c>
       <c r="E15" s="26"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="7" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="7" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="B27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1470,14 +1482,411 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A870D6-D7F1-4578-85E9-011C627AB5FF}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="G1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="G7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E320C00-A8F4-4C91-AD77-EA20AB5ACF4F}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -1488,19 +1897,19 @@
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23"/>
       <c r="G1" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H1" s="22"/>
       <c r="I1" s="23"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1520,146 +1929,146 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1">
+    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G8" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1670,389 +2079,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A870D6-D7F1-4578-85E9-011C627AB5FF}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A1" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="G1" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A3" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="13"/>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="13"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DuoNetwork - IP címek.xlsx
+++ b/DuoNetwork - IP címek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrcolorblade\Desktop\DuoNetwork\Dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9854D0-91B6-4480-9F3E-E184BEDCE1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B242CDC-09BE-4EFC-A9C0-614C925AFB67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baja" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
   <si>
     <t>Baja - Iroda</t>
   </si>
@@ -292,9 +292,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>172.16.1.10</t>
-  </si>
-  <si>
     <t>Switch</t>
   </si>
   <si>
@@ -310,24 +307,15 @@
     <t>IPv4 cím (/25)</t>
   </si>
   <si>
-    <t>IPv6 cím (/64)</t>
-  </si>
-  <si>
     <t>Iroda_R</t>
   </si>
   <si>
     <t>172.16.10.1</t>
   </si>
   <si>
-    <t>Bolt_R</t>
-  </si>
-  <si>
     <t>10.10.10.2/30</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Gig0/2</t>
   </si>
   <si>
@@ -337,12 +325,6 @@
     <t>172.16.20.1</t>
   </si>
   <si>
-    <t>2001:ACAD:20::1</t>
-  </si>
-  <si>
-    <t>FE80::1 link-local</t>
-  </si>
-  <si>
     <t>10.10.10.1 /30</t>
   </si>
   <si>
@@ -358,9 +340,6 @@
     <t>172.16.20.10</t>
   </si>
   <si>
-    <t>link-local</t>
-  </si>
-  <si>
     <t>Iroda_PC</t>
   </si>
   <si>
@@ -400,15 +379,9 @@
     <t>Iroda_Printer2</t>
   </si>
   <si>
-    <t>Iroda_Tuzfal</t>
-  </si>
-  <si>
     <t>Gig1/1</t>
   </si>
   <si>
-    <t>Gig1/0</t>
-  </si>
-  <si>
     <t>172.16.10.140</t>
   </si>
   <si>
@@ -479,18 +452,53 @@
   </si>
   <si>
     <t>172.16.10.142</t>
+  </si>
+  <si>
+    <t>172.16.1.50</t>
+  </si>
+  <si>
+    <t>Szerver</t>
+  </si>
+  <si>
+    <t>172.16.1.250</t>
+  </si>
+  <si>
+    <t>209.163.10.100</t>
+  </si>
+  <si>
+    <t>Bolt_ASA</t>
+  </si>
+  <si>
+    <t>Gig1/2</t>
+  </si>
+  <si>
+    <t>IPv6 cím</t>
+  </si>
+  <si>
+    <t>2001:ACAD:30::/64</t>
+  </si>
+  <si>
+    <t>Wifi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,6 +531,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -532,7 +549,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -719,24 +736,45 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -750,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -759,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -773,9 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -788,13 +823,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -803,13 +847,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1094,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,17 +1171,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1245,10 +1306,10 @@
       <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="28"/>
       <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1324,10 +1385,10 @@
       <c r="C15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -1336,7 +1397,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>42</v>
@@ -1385,7 +1446,7 @@
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1455,7 @@
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1403,7 +1464,7 @@
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1483,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A870D6-D7F1-4578-85E9-011C627AB5FF}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,92 +1558,84 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31"/>
+      <c r="G1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="37"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>95</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G4" s="13"/>
       <c r="H4" s="12" t="s">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>100</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1590,18 +1643,18 @@
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="H5" s="12" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>95</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
@@ -1609,15 +1662,21 @@
         <v>10</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
@@ -1632,13 +1691,11 @@
       <c r="I7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>42</v>
@@ -1647,21 +1704,19 @@
         <v>64</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>106</v>
-      </c>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>42</v>
@@ -1669,22 +1724,10 @@
       <c r="C9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>42</v>
@@ -1692,22 +1735,10 @@
       <c r="C10" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>42</v>
@@ -1718,96 +1749,98 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="B17" s="12" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>64</v>
@@ -1815,75 +1848,54 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>129</v>
+      <c r="A22" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>130</v>
+      <c r="A23" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E320C00-A8F4-4C91-AD77-EA20AB5ACF4F}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,33 +1903,37 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" customWidth="1"/>
     <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="G1" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="24"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="21" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>144</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>2</v>
@@ -1929,7 +1945,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1939,6 +1955,9 @@
       <c r="C3" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="E3" s="23" t="s">
+        <v>145</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>69</v>
       </c>
@@ -1949,7 +1968,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="7" t="s">
@@ -1974,7 +1993,9 @@
       <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>64</v>
       </c>
@@ -1992,7 +2013,9 @@
       <c r="A6" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>64</v>
       </c>
@@ -2010,14 +2033,18 @@
       <c r="A7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="I7" s="7" t="s">
         <v>82</v>
       </c>
@@ -2030,34 +2057,38 @@
         <v>42</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="I10" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="7"/>
+        <v>85</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="I11" s="7" t="s">
         <v>64</v>
       </c>
@@ -2066,9 +2097,25 @@
       <c r="G12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="I12" s="7" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
